--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-size/museum_activity_groups__var2-accreditation-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-size/museum_activity_groups__var2-accreditation-size.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -443,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -481,318 +484,450 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>104592</v>
+        <v>32564</v>
       </c>
       <c r="D4">
-        <v>9508.4</v>
+        <v>2960.4</v>
       </c>
       <c r="E4">
-        <v>7960</v>
+        <v>3218.9</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3662.5</v>
+        <v>585.5</v>
       </c>
       <c r="H4">
-        <v>9202</v>
+        <v>2171</v>
       </c>
       <c r="I4">
-        <v>12444.5</v>
+        <v>4220.5</v>
       </c>
       <c r="J4">
-        <v>23410</v>
+        <v>10793</v>
       </c>
       <c r="K4">
         <v>11</v>
       </c>
       <c r="L4">
-        <v>10459.2</v>
+        <v>4070.5</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>90.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="O4">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="P4">
-        <v>11313</v>
+        <v>57730</v>
       </c>
       <c r="Q4">
-        <v>1028.5</v>
+        <v>5248.2</v>
       </c>
       <c r="R4">
-        <v>944.4</v>
+        <v>5826.3</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>145.5</v>
+        <v>458.5</v>
       </c>
       <c r="U4">
-        <v>992</v>
+        <v>3095</v>
       </c>
       <c r="V4">
-        <v>1509</v>
+        <v>7564.5</v>
       </c>
       <c r="W4">
-        <v>2991</v>
+        <v>18016</v>
       </c>
       <c r="X4">
         <v>11</v>
       </c>
       <c r="Y4">
-        <v>1414.1</v>
+        <v>6414.4</v>
       </c>
       <c r="Z4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA4">
-        <v>72.7</v>
+        <v>81.8</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
+      <c r="AC4">
+        <v>11313</v>
+      </c>
+      <c r="AD4">
+        <v>1028.5</v>
+      </c>
+      <c r="AE4">
+        <v>944.4</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>145.5</v>
+      </c>
+      <c r="AH4">
+        <v>992</v>
+      </c>
+      <c r="AI4">
+        <v>1509</v>
+      </c>
+      <c r="AJ4">
+        <v>2991</v>
+      </c>
+      <c r="AK4">
+        <v>11</v>
+      </c>
+      <c r="AL4">
+        <v>1414.1</v>
+      </c>
+      <c r="AM4">
+        <v>8</v>
+      </c>
+      <c r="AN4">
+        <v>72.7</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>921085</v>
+        <v>606620</v>
       </c>
       <c r="D5">
-        <v>2361.8</v>
+        <v>1555.4</v>
       </c>
       <c r="E5">
-        <v>3632.5</v>
+        <v>2270.6</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>398</v>
+        <v>273.5</v>
       </c>
       <c r="H5">
-        <v>1132</v>
+        <v>875.5</v>
       </c>
       <c r="I5">
-        <v>2725.2</v>
+        <v>2015.8</v>
       </c>
       <c r="J5">
-        <v>25838</v>
+        <v>18330</v>
       </c>
       <c r="K5">
         <v>390</v>
       </c>
       <c r="L5">
-        <v>2757.7</v>
+        <v>1889.8</v>
       </c>
       <c r="M5">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="N5">
-        <v>85.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="O5">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="P5">
-        <v>218789</v>
+        <v>237658</v>
       </c>
       <c r="Q5">
-        <v>561</v>
+        <v>609.4</v>
       </c>
       <c r="R5">
-        <v>601.3</v>
+        <v>1310.6</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="U5">
-        <v>450.5</v>
+        <v>219.5</v>
       </c>
       <c r="V5">
-        <v>882</v>
+        <v>593</v>
       </c>
       <c r="W5">
-        <v>4241</v>
+        <v>12827</v>
       </c>
       <c r="X5">
         <v>390</v>
       </c>
       <c r="Y5">
+        <v>726.8</v>
+      </c>
+      <c r="Z5">
+        <v>327</v>
+      </c>
+      <c r="AA5">
+        <v>83.8</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>218789</v>
+      </c>
+      <c r="AD5">
+        <v>561</v>
+      </c>
+      <c r="AE5">
+        <v>601.3</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>450.5</v>
+      </c>
+      <c r="AI5">
+        <v>882</v>
+      </c>
+      <c r="AJ5">
+        <v>4241</v>
+      </c>
+      <c r="AK5">
+        <v>390</v>
+      </c>
+      <c r="AL5">
         <v>841.5</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>260</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>66.7</v>
       </c>
-      <c r="AB5">
+      <c r="AO5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>1223876</v>
+        <v>564948</v>
       </c>
       <c r="D6">
-        <v>2006.4</v>
+        <v>926.1</v>
       </c>
       <c r="E6">
-        <v>5403</v>
+        <v>2337.1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>540</v>
+        <v>294</v>
       </c>
       <c r="I6">
-        <v>1735</v>
+        <v>1079.8</v>
       </c>
       <c r="J6">
-        <v>68140</v>
+        <v>43003</v>
       </c>
       <c r="K6">
         <v>610</v>
       </c>
       <c r="L6">
-        <v>2533.9</v>
+        <v>1284</v>
       </c>
       <c r="M6">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="N6">
-        <v>79.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="O6">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="P6">
-        <v>267420</v>
+        <v>184499</v>
       </c>
       <c r="Q6">
-        <v>438.4</v>
+        <v>302.5</v>
       </c>
       <c r="R6">
-        <v>911.2</v>
+        <v>2018.3</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -801,43 +936,82 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="V6">
-        <v>597</v>
+        <v>196</v>
       </c>
       <c r="W6">
-        <v>6887</v>
+        <v>46992</v>
       </c>
       <c r="X6">
         <v>610</v>
       </c>
       <c r="Y6">
+        <v>414.6</v>
+      </c>
+      <c r="Z6">
+        <v>445</v>
+      </c>
+      <c r="AA6">
+        <v>73</v>
+      </c>
+      <c r="AB6">
+        <v>0.6</v>
+      </c>
+      <c r="AC6">
+        <v>267420</v>
+      </c>
+      <c r="AD6">
+        <v>438.4</v>
+      </c>
+      <c r="AE6">
+        <v>911.2</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>597</v>
+      </c>
+      <c r="AJ6">
+        <v>6887</v>
+      </c>
+      <c r="AK6">
+        <v>610</v>
+      </c>
+      <c r="AL6">
         <v>965.4</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>277</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>45.4</v>
       </c>
-      <c r="AB6">
+      <c r="AO6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>809991</v>
+        <v>361739</v>
       </c>
       <c r="D7">
-        <v>1298.1</v>
+        <v>579.7</v>
       </c>
       <c r="E7">
-        <v>4244.3</v>
+        <v>2194</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -846,37 +1020,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I7">
-        <v>813.5</v>
+        <v>550</v>
       </c>
       <c r="J7">
-        <v>56317</v>
+        <v>47580</v>
       </c>
       <c r="K7">
         <v>624</v>
       </c>
       <c r="L7">
-        <v>1970.8</v>
+        <v>957</v>
       </c>
       <c r="M7">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="N7">
-        <v>65.90000000000001</v>
+        <v>60.6</v>
       </c>
       <c r="O7">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P7">
-        <v>132580</v>
+        <v>89968</v>
       </c>
       <c r="Q7">
-        <v>212.5</v>
+        <v>144.2</v>
       </c>
       <c r="R7">
-        <v>727.9</v>
+        <v>539.6</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -885,43 +1059,82 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>71.2</v>
       </c>
       <c r="W7">
-        <v>13336</v>
+        <v>8505</v>
       </c>
       <c r="X7">
         <v>624</v>
       </c>
       <c r="Y7">
+        <v>237.4</v>
+      </c>
+      <c r="Z7">
+        <v>379</v>
+      </c>
+      <c r="AA7">
+        <v>60.7</v>
+      </c>
+      <c r="AB7">
+        <v>0.1</v>
+      </c>
+      <c r="AC7">
+        <v>132580</v>
+      </c>
+      <c r="AD7">
+        <v>212.5</v>
+      </c>
+      <c r="AE7">
+        <v>727.9</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <v>13336</v>
+      </c>
+      <c r="AK7">
+        <v>624</v>
+      </c>
+      <c r="AL7">
         <v>849.9</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>156</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>25</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>97720</v>
+        <v>7967</v>
       </c>
       <c r="D8">
-        <v>6107.5</v>
+        <v>497.9</v>
       </c>
       <c r="E8">
-        <v>18515.5</v>
+        <v>1103.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -933,34 +1146,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1502.8</v>
+        <v>269.8</v>
       </c>
       <c r="J8">
-        <v>74441</v>
+        <v>4124</v>
       </c>
       <c r="K8">
         <v>16</v>
       </c>
       <c r="L8">
-        <v>13960</v>
+        <v>1593.4</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>43.8</v>
+        <v>31.2</v>
       </c>
       <c r="O8">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="P8">
-        <v>2326</v>
+        <v>3159</v>
       </c>
       <c r="Q8">
-        <v>145.4</v>
+        <v>197.4</v>
       </c>
       <c r="R8">
-        <v>285.9</v>
+        <v>600.6</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -972,16 +1185,16 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>155</v>
+        <v>33.8</v>
       </c>
       <c r="W8">
-        <v>1003</v>
+        <v>2400</v>
       </c>
       <c r="X8">
         <v>16</v>
       </c>
       <c r="Y8">
-        <v>465.2</v>
+        <v>631.8</v>
       </c>
       <c r="Z8">
         <v>5</v>
@@ -990,186 +1203,294 @@
         <v>31.2</v>
       </c>
       <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
+        <v>2326</v>
+      </c>
+      <c r="AD8">
+        <v>145.4</v>
+      </c>
+      <c r="AE8">
+        <v>285.9</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>155</v>
+      </c>
+      <c r="AJ8">
+        <v>1003</v>
+      </c>
+      <c r="AK8">
+        <v>16</v>
+      </c>
+      <c r="AL8">
+        <v>465.2</v>
+      </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+      <c r="AN8">
+        <v>31.2</v>
+      </c>
+      <c r="AO8">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>6501</v>
-      </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.6</v>
+        <v>-2.2</v>
       </c>
       <c r="P9">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>-2.2</v>
+      </c>
+      <c r="AC9">
         <v>395</v>
       </c>
-      <c r="Z9">
+      <c r="AD9">
+        <v>395</v>
+      </c>
+      <c r="AF9">
+        <v>395</v>
+      </c>
+      <c r="AG9">
+        <v>395</v>
+      </c>
+      <c r="AH9">
+        <v>395</v>
+      </c>
+      <c r="AI9">
+        <v>395</v>
+      </c>
+      <c r="AJ9">
+        <v>395</v>
+      </c>
+      <c r="AK9">
         <v>1</v>
       </c>
-      <c r="AA9">
+      <c r="AL9">
+        <v>395</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
         <v>100</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>2.1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>270302</v>
+        <v>153567</v>
       </c>
       <c r="D10">
-        <v>2502.8</v>
+        <v>1421.9</v>
       </c>
       <c r="E10">
-        <v>5086.1</v>
+        <v>2801.1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.8</v>
+        <v>15.8</v>
       </c>
       <c r="H10">
-        <v>670</v>
+        <v>524.5</v>
       </c>
       <c r="I10">
-        <v>2325.5</v>
+        <v>1407</v>
       </c>
       <c r="J10">
-        <v>31042</v>
+        <v>19900</v>
       </c>
       <c r="K10">
         <v>108</v>
       </c>
       <c r="L10">
-        <v>3143</v>
+        <v>1850.2</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N10">
-        <v>79.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="O10">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="P10">
-        <v>49119</v>
+        <v>102007</v>
       </c>
       <c r="Q10">
-        <v>454.8</v>
+        <v>944.5</v>
       </c>
       <c r="R10">
-        <v>551.7</v>
+        <v>2896.8</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U10">
-        <v>220.5</v>
+        <v>142.5</v>
       </c>
       <c r="V10">
-        <v>773</v>
+        <v>731.5</v>
       </c>
       <c r="W10">
-        <v>2432</v>
+        <v>20111</v>
       </c>
       <c r="X10">
         <v>108</v>
       </c>
       <c r="Y10">
+        <v>1200.1</v>
+      </c>
+      <c r="Z10">
+        <v>85</v>
+      </c>
+      <c r="AA10">
+        <v>78.7</v>
+      </c>
+      <c r="AB10">
+        <v>0.8</v>
+      </c>
+      <c r="AC10">
+        <v>49119</v>
+      </c>
+      <c r="AD10">
+        <v>454.8</v>
+      </c>
+      <c r="AE10">
+        <v>551.7</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>220.5</v>
+      </c>
+      <c r="AI10">
+        <v>773</v>
+      </c>
+      <c r="AJ10">
+        <v>2432</v>
+      </c>
+      <c r="AK10">
+        <v>108</v>
+      </c>
+      <c r="AL10">
         <v>792.2</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>62</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>57.4</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>262089</v>
+        <v>109726</v>
       </c>
       <c r="D11">
-        <v>1031.8</v>
+        <v>432</v>
       </c>
       <c r="E11">
-        <v>2809.8</v>
+        <v>776.9</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1178,37 +1499,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>92.5</v>
+        <v>31.5</v>
       </c>
       <c r="I11">
-        <v>874.2</v>
+        <v>579.5</v>
       </c>
       <c r="J11">
-        <v>30621</v>
+        <v>4331</v>
       </c>
       <c r="K11">
         <v>254</v>
       </c>
       <c r="L11">
-        <v>1598.1</v>
+        <v>772.7</v>
       </c>
       <c r="M11">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="N11">
-        <v>64.59999999999999</v>
+        <v>55.9</v>
       </c>
       <c r="O11">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>117897</v>
+        <v>28629</v>
       </c>
       <c r="Q11">
-        <v>464.2</v>
+        <v>112.7</v>
       </c>
       <c r="R11">
-        <v>2494</v>
+        <v>264.5</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1217,43 +1538,82 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="V11">
-        <v>413.5</v>
+        <v>85.5</v>
       </c>
       <c r="W11">
-        <v>36948</v>
+        <v>1833</v>
       </c>
       <c r="X11">
         <v>254</v>
       </c>
       <c r="Y11">
+        <v>192.1</v>
+      </c>
+      <c r="Z11">
+        <v>149</v>
+      </c>
+      <c r="AA11">
+        <v>58.7</v>
+      </c>
+      <c r="AB11">
+        <v>0.1</v>
+      </c>
+      <c r="AC11">
+        <v>117897</v>
+      </c>
+      <c r="AD11">
+        <v>464.2</v>
+      </c>
+      <c r="AE11">
+        <v>2494</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>413.5</v>
+      </c>
+      <c r="AJ11">
+        <v>36948</v>
+      </c>
+      <c r="AK11">
+        <v>254</v>
+      </c>
+      <c r="AL11">
         <v>1281.5</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>92</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>36.2</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>1510359</v>
+        <v>451411</v>
       </c>
       <c r="D12">
-        <v>1257.6</v>
+        <v>375.9</v>
       </c>
       <c r="E12">
-        <v>4624.3</v>
+        <v>970</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1262,37 +1622,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>494</v>
+        <v>250</v>
       </c>
       <c r="J12">
-        <v>72982</v>
+        <v>14101</v>
       </c>
       <c r="K12">
         <v>1201</v>
       </c>
       <c r="L12">
-        <v>2330.8</v>
+        <v>803.2</v>
       </c>
       <c r="M12">
-        <v>648</v>
+        <v>562</v>
       </c>
       <c r="N12">
-        <v>54</v>
+        <v>46.8</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="P12">
-        <v>313268</v>
+        <v>165917</v>
       </c>
       <c r="Q12">
-        <v>260.8</v>
+        <v>138.1</v>
       </c>
       <c r="R12">
-        <v>1379.8</v>
+        <v>651.2</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1304,40 +1664,79 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W12">
-        <v>36858</v>
+        <v>11227</v>
       </c>
       <c r="X12">
         <v>1201</v>
       </c>
       <c r="Y12">
+        <v>289.6</v>
+      </c>
+      <c r="Z12">
+        <v>573</v>
+      </c>
+      <c r="AA12">
+        <v>47.7</v>
+      </c>
+      <c r="AB12">
+        <v>-0.3</v>
+      </c>
+      <c r="AC12">
+        <v>313268</v>
+      </c>
+      <c r="AD12">
+        <v>260.8</v>
+      </c>
+      <c r="AE12">
+        <v>1379.8</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>40</v>
+      </c>
+      <c r="AJ12">
+        <v>36858</v>
+      </c>
+      <c r="AK12">
+        <v>1201</v>
+      </c>
+      <c r="AL12">
         <v>1013.8</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>309</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>25.7</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>236436</v>
+        <v>115287</v>
       </c>
       <c r="D13">
-        <v>1906.7</v>
+        <v>929.7</v>
       </c>
       <c r="E13">
-        <v>7762.5</v>
+        <v>4364.3</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1346,37 +1745,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25.5</v>
+        <v>5.5</v>
       </c>
       <c r="I13">
-        <v>1060.8</v>
+        <v>772.5</v>
       </c>
       <c r="J13">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K13">
         <v>124</v>
       </c>
       <c r="L13">
-        <v>3283.8</v>
+        <v>1695.4</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N13">
-        <v>58.1</v>
+        <v>54.8</v>
       </c>
       <c r="O13">
-        <v>-0.8</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>73509</v>
+        <v>39495</v>
       </c>
       <c r="Q13">
-        <v>592.8</v>
+        <v>318.5</v>
       </c>
       <c r="R13">
-        <v>2203.4</v>
+        <v>1910.8</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1385,34 +1784,74 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>282.5</v>
+        <v>105</v>
       </c>
       <c r="W13">
-        <v>20246</v>
+        <v>20884</v>
       </c>
       <c r="X13">
         <v>124</v>
       </c>
       <c r="Y13">
+        <v>607.6</v>
+      </c>
+      <c r="Z13">
+        <v>65</v>
+      </c>
+      <c r="AA13">
+        <v>52.4</v>
+      </c>
+      <c r="AB13">
+        <v>-0.2</v>
+      </c>
+      <c r="AC13">
+        <v>73509</v>
+      </c>
+      <c r="AD13">
+        <v>592.8</v>
+      </c>
+      <c r="AE13">
+        <v>2203.4</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>282.5</v>
+      </c>
+      <c r="AJ13">
+        <v>20246</v>
+      </c>
+      <c r="AK13">
+        <v>124</v>
+      </c>
+      <c r="AL13">
         <v>2041.9</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>36</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>29</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>-0.8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
   </mergeCells>

--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-size/museum_activity_groups__var2-accreditation-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-size/museum_activity_groups__var2-accreditation-size.xlsx
@@ -636,34 +636,34 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>32564</v>
+        <v>39647</v>
       </c>
       <c r="D4">
-        <v>2960.4</v>
+        <v>3604.3</v>
       </c>
       <c r="E4">
-        <v>3218.9</v>
+        <v>3706.5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>585.5</v>
+        <v>638.5</v>
       </c>
       <c r="H4">
-        <v>2171</v>
+        <v>3054</v>
       </c>
       <c r="I4">
-        <v>4220.5</v>
+        <v>4806</v>
       </c>
       <c r="J4">
-        <v>10793</v>
+        <v>12666</v>
       </c>
       <c r="K4">
         <v>11</v>
       </c>
       <c r="L4">
-        <v>4070.5</v>
+        <v>4955.9</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -675,34 +675,34 @@
         <v>0.7</v>
       </c>
       <c r="P4">
-        <v>57730</v>
+        <v>70240</v>
       </c>
       <c r="Q4">
-        <v>5248.2</v>
+        <v>6385.5</v>
       </c>
       <c r="R4">
-        <v>5826.3</v>
+        <v>6737.7</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>458.5</v>
+        <v>531.5</v>
       </c>
       <c r="U4">
-        <v>3095</v>
+        <v>4132</v>
       </c>
       <c r="V4">
-        <v>7564.5</v>
+        <v>10066.5</v>
       </c>
       <c r="W4">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X4">
         <v>11</v>
       </c>
       <c r="Y4">
-        <v>6414.4</v>
+        <v>7804.4</v>
       </c>
       <c r="Z4">
         <v>9</v>
@@ -714,34 +714,34 @@
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>11313</v>
+        <v>13374</v>
       </c>
       <c r="AD4">
-        <v>1028.5</v>
+        <v>1215.8</v>
       </c>
       <c r="AE4">
-        <v>944.4</v>
+        <v>1092.8</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>145.5</v>
+        <v>196</v>
       </c>
       <c r="AH4">
-        <v>992</v>
+        <v>1201</v>
       </c>
       <c r="AI4">
-        <v>1509</v>
+        <v>1873</v>
       </c>
       <c r="AJ4">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AK4">
         <v>11</v>
       </c>
       <c r="AL4">
-        <v>1414.1</v>
+        <v>1671.8</v>
       </c>
       <c r="AM4">
         <v>8</v>
@@ -750,7 +750,7 @@
         <v>72.7</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -759,121 +759,121 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>606620</v>
+        <v>718118</v>
       </c>
       <c r="D5">
-        <v>1555.4</v>
+        <v>1841.3</v>
       </c>
       <c r="E5">
-        <v>2270.6</v>
+        <v>2721.3</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>273.5</v>
+        <v>268.2</v>
       </c>
       <c r="H5">
-        <v>875.5</v>
+        <v>1010</v>
       </c>
       <c r="I5">
-        <v>2015.8</v>
+        <v>2350.8</v>
       </c>
       <c r="J5">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K5">
         <v>390</v>
       </c>
       <c r="L5">
-        <v>1889.8</v>
+        <v>2258.2</v>
       </c>
       <c r="M5">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N5">
-        <v>82.3</v>
+        <v>81.5</v>
       </c>
       <c r="O5">
         <v>1.1</v>
       </c>
       <c r="P5">
-        <v>237658</v>
+        <v>271508</v>
       </c>
       <c r="Q5">
-        <v>609.4</v>
+        <v>696.2</v>
       </c>
       <c r="R5">
-        <v>1310.6</v>
+        <v>1473.6</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>46</v>
+        <v>50.5</v>
       </c>
       <c r="U5">
-        <v>219.5</v>
+        <v>238.5</v>
       </c>
       <c r="V5">
-        <v>593</v>
+        <v>692.8</v>
       </c>
       <c r="W5">
-        <v>12827</v>
+        <v>13652</v>
       </c>
       <c r="X5">
         <v>390</v>
       </c>
       <c r="Y5">
-        <v>726.8</v>
+        <v>838</v>
       </c>
       <c r="Z5">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AA5">
-        <v>83.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>218789</v>
+        <v>314407</v>
       </c>
       <c r="AD5">
-        <v>561</v>
+        <v>806.2</v>
       </c>
       <c r="AE5">
-        <v>601.3</v>
+        <v>734.2</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>280.2</v>
       </c>
       <c r="AH5">
-        <v>450.5</v>
+        <v>665</v>
       </c>
       <c r="AI5">
-        <v>882</v>
+        <v>1160.8</v>
       </c>
       <c r="AJ5">
-        <v>4241</v>
+        <v>5325</v>
       </c>
       <c r="AK5">
         <v>390</v>
       </c>
       <c r="AL5">
-        <v>841.5</v>
+        <v>958.6</v>
       </c>
       <c r="AM5">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="AN5">
-        <v>66.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="AO5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -882,13 +882,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>564948</v>
+        <v>662425</v>
       </c>
       <c r="D6">
-        <v>926.1</v>
+        <v>1085.9</v>
       </c>
       <c r="E6">
-        <v>2337.1</v>
+        <v>2935.8</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -897,37 +897,37 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="I6">
-        <v>1079.8</v>
+        <v>1278</v>
       </c>
       <c r="J6">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K6">
         <v>610</v>
       </c>
       <c r="L6">
-        <v>1284</v>
+        <v>1544.1</v>
       </c>
       <c r="M6">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="N6">
-        <v>72.09999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="O6">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P6">
-        <v>184499</v>
+        <v>210798</v>
       </c>
       <c r="Q6">
-        <v>302.5</v>
+        <v>345.6</v>
       </c>
       <c r="R6">
-        <v>2018.3</v>
+        <v>2192.3</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -936,67 +936,67 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>48.5</v>
+        <v>50.5</v>
       </c>
       <c r="V6">
-        <v>196</v>
+        <v>221.2</v>
       </c>
       <c r="W6">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X6">
         <v>610</v>
       </c>
       <c r="Y6">
-        <v>414.6</v>
+        <v>483.5</v>
       </c>
       <c r="Z6">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AA6">
-        <v>73</v>
+        <v>71.5</v>
       </c>
       <c r="AB6">
         <v>0.6</v>
       </c>
       <c r="AC6">
-        <v>267420</v>
+        <v>347639</v>
       </c>
       <c r="AD6">
-        <v>438.4</v>
+        <v>569.9</v>
       </c>
       <c r="AE6">
-        <v>911.2</v>
+        <v>742.4</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AI6">
-        <v>597</v>
+        <v>873</v>
       </c>
       <c r="AJ6">
-        <v>6887</v>
+        <v>8295</v>
       </c>
       <c r="AK6">
         <v>610</v>
       </c>
       <c r="AL6">
-        <v>965.4</v>
+        <v>760.7</v>
       </c>
       <c r="AM6">
-        <v>277</v>
+        <v>457</v>
       </c>
       <c r="AN6">
-        <v>45.4</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="AO6">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1005,13 +1005,13 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>361739</v>
+        <v>419663</v>
       </c>
       <c r="D7">
-        <v>579.7</v>
+        <v>672.5</v>
       </c>
       <c r="E7">
-        <v>2194</v>
+        <v>2419.3</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1020,37 +1020,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7">
-        <v>550</v>
+        <v>620.8</v>
       </c>
       <c r="J7">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K7">
         <v>624</v>
       </c>
       <c r="L7">
-        <v>957</v>
+        <v>1128.1</v>
       </c>
       <c r="M7">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="N7">
-        <v>60.6</v>
+        <v>59.6</v>
       </c>
       <c r="O7">
         <v>0.2</v>
       </c>
       <c r="P7">
-        <v>89968</v>
+        <v>103217</v>
       </c>
       <c r="Q7">
-        <v>144.2</v>
+        <v>165.4</v>
       </c>
       <c r="R7">
-        <v>539.6</v>
+        <v>624</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1062,34 +1062,34 @@
         <v>9</v>
       </c>
       <c r="V7">
-        <v>71.2</v>
+        <v>86.5</v>
       </c>
       <c r="W7">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X7">
         <v>624</v>
       </c>
       <c r="Y7">
-        <v>237.4</v>
+        <v>276</v>
       </c>
       <c r="Z7">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AA7">
-        <v>60.7</v>
+        <v>59.9</v>
       </c>
       <c r="AB7">
         <v>0.1</v>
       </c>
       <c r="AC7">
-        <v>132580</v>
+        <v>198030</v>
       </c>
       <c r="AD7">
-        <v>212.5</v>
+        <v>317.4</v>
       </c>
       <c r="AE7">
-        <v>727.9</v>
+        <v>540.6</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="AJ7">
-        <v>13336</v>
+        <v>4716</v>
       </c>
       <c r="AK7">
         <v>624</v>
       </c>
       <c r="AL7">
-        <v>849.9</v>
+        <v>521.1</v>
       </c>
       <c r="AM7">
-        <v>156</v>
+        <v>380</v>
       </c>
       <c r="AN7">
-        <v>25</v>
+        <v>60.9</v>
       </c>
       <c r="AO7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1128,13 +1128,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>7967</v>
+        <v>8970</v>
       </c>
       <c r="D8">
-        <v>497.9</v>
+        <v>560.6</v>
       </c>
       <c r="E8">
-        <v>1103.5</v>
+        <v>1236.4</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1146,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>269.8</v>
+        <v>307.8</v>
       </c>
       <c r="J8">
-        <v>4124</v>
+        <v>4576</v>
       </c>
       <c r="K8">
         <v>16</v>
       </c>
       <c r="L8">
-        <v>1593.4</v>
+        <v>1794</v>
       </c>
       <c r="M8">
         <v>5</v>
@@ -1167,13 +1167,13 @@
         <v>-1</v>
       </c>
       <c r="P8">
-        <v>3159</v>
+        <v>3339</v>
       </c>
       <c r="Q8">
-        <v>197.4</v>
+        <v>208.7</v>
       </c>
       <c r="R8">
-        <v>600.6</v>
+        <v>633.3</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1185,34 +1185,34 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>33.8</v>
+        <v>34.5</v>
       </c>
       <c r="W8">
-        <v>2400</v>
+        <v>2528</v>
       </c>
       <c r="X8">
         <v>16</v>
       </c>
       <c r="Y8">
-        <v>631.8</v>
+        <v>556.5</v>
       </c>
       <c r="Z8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA8">
-        <v>31.2</v>
+        <v>37.5</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AC8">
-        <v>2326</v>
+        <v>4401</v>
       </c>
       <c r="AD8">
-        <v>145.4</v>
+        <v>275.1</v>
       </c>
       <c r="AE8">
-        <v>285.9</v>
+        <v>419.4</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1221,28 +1221,28 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI8">
-        <v>155</v>
+        <v>374.8</v>
       </c>
       <c r="AJ8">
-        <v>1003</v>
+        <v>1205</v>
       </c>
       <c r="AK8">
         <v>16</v>
       </c>
       <c r="AL8">
-        <v>465.2</v>
+        <v>550.1</v>
       </c>
       <c r="AM8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AN8">
-        <v>31.2</v>
+        <v>50</v>
       </c>
       <c r="AO8">
-        <v>-0.7</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1316,34 +1316,34 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AC9">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AD9">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AF9">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AG9">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AH9">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AI9">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AJ9">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AK9">
         <v>1</v>
       </c>
       <c r="AL9">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AM9">
         <v>1</v>
@@ -1361,34 +1361,34 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>153567</v>
+        <v>180386</v>
       </c>
       <c r="D10">
-        <v>1421.9</v>
+        <v>1670.2</v>
       </c>
       <c r="E10">
-        <v>2801.1</v>
+        <v>3362.9</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="H10">
-        <v>524.5</v>
+        <v>589.5</v>
       </c>
       <c r="I10">
-        <v>1407</v>
+        <v>1681.8</v>
       </c>
       <c r="J10">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K10">
         <v>108</v>
       </c>
       <c r="L10">
-        <v>1850.2</v>
+        <v>2173.3</v>
       </c>
       <c r="M10">
         <v>83</v>
@@ -1400,34 +1400,34 @@
         <v>0.9</v>
       </c>
       <c r="P10">
-        <v>102007</v>
+        <v>121802</v>
       </c>
       <c r="Q10">
-        <v>944.5</v>
+        <v>1127.8</v>
       </c>
       <c r="R10">
-        <v>2896.8</v>
+        <v>3510.8</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U10">
-        <v>142.5</v>
+        <v>162</v>
       </c>
       <c r="V10">
-        <v>731.5</v>
+        <v>793.8</v>
       </c>
       <c r="W10">
-        <v>20111</v>
+        <v>24554</v>
       </c>
       <c r="X10">
         <v>108</v>
       </c>
       <c r="Y10">
-        <v>1200.1</v>
+        <v>1433</v>
       </c>
       <c r="Z10">
         <v>85</v>
@@ -1436,16 +1436,16 @@
         <v>78.7</v>
       </c>
       <c r="AB10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC10">
-        <v>49119</v>
+        <v>72044</v>
       </c>
       <c r="AD10">
-        <v>454.8</v>
+        <v>667.1</v>
       </c>
       <c r="AE10">
-        <v>551.7</v>
+        <v>877.3</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1454,28 +1454,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>220.5</v>
+        <v>399.5</v>
       </c>
       <c r="AI10">
-        <v>773</v>
+        <v>1024.8</v>
       </c>
       <c r="AJ10">
-        <v>2432</v>
+        <v>6193</v>
       </c>
       <c r="AK10">
         <v>108</v>
       </c>
       <c r="AL10">
-        <v>792.2</v>
+        <v>923.6</v>
       </c>
       <c r="AM10">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AN10">
-        <v>57.4</v>
+        <v>72.2</v>
       </c>
       <c r="AO10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1484,13 +1484,13 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>109726</v>
+        <v>130730</v>
       </c>
       <c r="D11">
-        <v>432</v>
+        <v>514.7</v>
       </c>
       <c r="E11">
-        <v>776.9</v>
+        <v>924.7</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31.5</v>
+        <v>35.5</v>
       </c>
       <c r="I11">
-        <v>579.5</v>
+        <v>699.2</v>
       </c>
       <c r="J11">
-        <v>4331</v>
+        <v>5153</v>
       </c>
       <c r="K11">
         <v>254</v>
       </c>
       <c r="L11">
-        <v>772.7</v>
+        <v>920.6</v>
       </c>
       <c r="M11">
         <v>142</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>28629</v>
+        <v>32742</v>
       </c>
       <c r="Q11">
-        <v>112.7</v>
+        <v>128.9</v>
       </c>
       <c r="R11">
-        <v>264.5</v>
+        <v>295.6</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1538,37 +1538,37 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="V11">
-        <v>85.5</v>
+        <v>101</v>
       </c>
       <c r="W11">
-        <v>1833</v>
+        <v>2073</v>
       </c>
       <c r="X11">
         <v>254</v>
       </c>
       <c r="Y11">
-        <v>192.1</v>
+        <v>221.2</v>
       </c>
       <c r="Z11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA11">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="AB11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>117897</v>
+        <v>116988</v>
       </c>
       <c r="AD11">
-        <v>464.2</v>
+        <v>460.6</v>
       </c>
       <c r="AE11">
-        <v>2494</v>
+        <v>614.4</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1577,28 +1577,28 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AI11">
-        <v>413.5</v>
+        <v>725.5</v>
       </c>
       <c r="AJ11">
-        <v>36948</v>
+        <v>3597</v>
       </c>
       <c r="AK11">
         <v>254</v>
       </c>
       <c r="AL11">
-        <v>1281.5</v>
+        <v>722.1</v>
       </c>
       <c r="AM11">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="AN11">
-        <v>36.2</v>
+        <v>63.8</v>
       </c>
       <c r="AO11">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1607,13 +1607,13 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>451411</v>
+        <v>528852</v>
       </c>
       <c r="D12">
-        <v>375.9</v>
+        <v>440.3</v>
       </c>
       <c r="E12">
-        <v>970</v>
+        <v>1164</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1625,34 +1625,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="J12">
-        <v>14101</v>
+        <v>17617</v>
       </c>
       <c r="K12">
         <v>1201</v>
       </c>
       <c r="L12">
-        <v>803.2</v>
+        <v>942.7</v>
       </c>
       <c r="M12">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N12">
-        <v>46.8</v>
+        <v>46.7</v>
       </c>
       <c r="O12">
         <v>-0.3</v>
       </c>
       <c r="P12">
-        <v>165917</v>
+        <v>195022</v>
       </c>
       <c r="Q12">
-        <v>138.1</v>
+        <v>162.4</v>
       </c>
       <c r="R12">
-        <v>651.2</v>
+        <v>761.1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1664,34 +1664,34 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W12">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="X12">
         <v>1201</v>
       </c>
       <c r="Y12">
-        <v>289.6</v>
+        <v>338.6</v>
       </c>
       <c r="Z12">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AA12">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="AB12">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AC12">
-        <v>313268</v>
+        <v>340249</v>
       </c>
       <c r="AD12">
-        <v>260.8</v>
+        <v>283.3</v>
       </c>
       <c r="AE12">
-        <v>1379.8</v>
+        <v>534.9</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1700,28 +1700,28 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI12">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="AJ12">
-        <v>36858</v>
+        <v>5226</v>
       </c>
       <c r="AK12">
         <v>1201</v>
       </c>
       <c r="AL12">
-        <v>1013.8</v>
+        <v>525.1</v>
       </c>
       <c r="AM12">
-        <v>309</v>
+        <v>648</v>
       </c>
       <c r="AN12">
-        <v>25.7</v>
+        <v>54</v>
       </c>
       <c r="AO12">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1730,13 +1730,13 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>115287</v>
+        <v>134157</v>
       </c>
       <c r="D13">
-        <v>929.7</v>
+        <v>1081.9</v>
       </c>
       <c r="E13">
-        <v>4364.3</v>
+        <v>4850</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1745,37 +1745,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>772.5</v>
+        <v>949.8</v>
       </c>
       <c r="J13">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K13">
         <v>124</v>
       </c>
       <c r="L13">
-        <v>1695.4</v>
+        <v>2002.3</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13">
-        <v>54.8</v>
+        <v>54</v>
       </c>
       <c r="O13">
         <v>-0</v>
       </c>
       <c r="P13">
-        <v>39495</v>
+        <v>45586</v>
       </c>
       <c r="Q13">
-        <v>318.5</v>
+        <v>367.6</v>
       </c>
       <c r="R13">
-        <v>1910.8</v>
+        <v>2247.9</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1784,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V13">
-        <v>105</v>
+        <v>117.5</v>
       </c>
       <c r="W13">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X13">
         <v>124</v>
       </c>
       <c r="Y13">
-        <v>607.6</v>
+        <v>701.3</v>
       </c>
       <c r="Z13">
         <v>65</v>
@@ -1808,13 +1808,13 @@
         <v>-0.2</v>
       </c>
       <c r="AC13">
-        <v>73509</v>
+        <v>57064</v>
       </c>
       <c r="AD13">
-        <v>592.8</v>
+        <v>460.2</v>
       </c>
       <c r="AE13">
-        <v>2203.4</v>
+        <v>697</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1823,28 +1823,28 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>57.5</v>
       </c>
       <c r="AI13">
-        <v>282.5</v>
+        <v>758.2</v>
       </c>
       <c r="AJ13">
-        <v>20246</v>
+        <v>3450</v>
       </c>
       <c r="AK13">
         <v>124</v>
       </c>
       <c r="AL13">
-        <v>2041.9</v>
+        <v>792.6</v>
       </c>
       <c r="AM13">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="AN13">
-        <v>29</v>
+        <v>58.1</v>
       </c>
       <c r="AO13">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
